--- a/光电实验/数据处理.xlsx
+++ b/光电实验/数据处理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collaalloc2333-my.sharepoint.com/personal/collaalloc_collaalloc2333_onmicrosoft_com/Documents/Documents/光电实验/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CollaalloC\documents\光电实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B2F74E5-978E-444C-898F-262C4CD0D668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C5391-8971-4775-BFBE-29E32DD015F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20775" yWindow="17175" windowWidth="15375" windowHeight="9930" activeTab="1" xr2:uid="{E30A6921-FA02-42C7-817E-1F74661AB644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30A6921-FA02-42C7-817E-1F74661AB644}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -659,6 +659,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1660563087"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -740,7 +741,2166 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>光电池伏安特性曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>112.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="l"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$B$4,Sheet2!$B$9,Sheet2!$B$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$B$3,Sheet2!$B$8,Sheet2!$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>112.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001C-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$C$4,Sheet2!$C$9,Sheet2!$C$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$C$3,Sheet2!$C$8,Sheet2!$C$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2888888888888891E-2"/>
+                  <c:y val="-3.7220731486776445E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$D$9,Sheet2!$D$4,Sheet2!$D$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$D$8,Sheet2!$D$3,Sheet2!$D$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$E$4,Sheet2!$E$9,Sheet2!$E$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$E$3,Sheet2!$E$8,Sheet2!$E$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>109.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$F$4,Sheet2!$F$9,Sheet2!$F$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$F$3,Sheet2!$F$8,Sheet2!$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.1K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000020-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$G$4,Sheet2!$G$9,Sheet2!$G$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$G$3,Sheet2!$G$8,Sheet2!$G$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.5K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$H$4,Sheet2!$H$9,Sheet2!$H$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$H$3,Sheet2!$H$8,Sheet2!$H$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.5K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$H$4,Sheet2!$H$9,Sheet2!$H$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$H$3,Sheet2!$H$8,Sheet2!$H$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000022-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$I$4,Sheet2!$I$9,Sheet2!$I$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$I$3,Sheet2!$I$8,Sheet2!$I$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet2!$J$4,Sheet2!$J$9,Sheet2!$J$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet2!$J$3,Sheet2!$J$8,Sheet2!$J$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-22DE-4E83-BD0D-3CD132DEDBD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556033119"/>
+        <c:axId val="556021887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556033119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556021887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556021887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556033119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="10"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="11"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1280,6 +3440,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1301,6 +3977,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B08F6FF-3351-4CE1-A713-3D35D3B25B26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5594F08A-8D7A-4D1F-BC9A-D0882E59A39B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,16 +4337,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC3D012-DE26-4F1F-ADD6-96A10A218A05}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +4372,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +4398,7 @@
         <v>134.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1719,18 +4436,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CD34DE-E5AE-44D1-965A-7F1A5A47B59B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +4479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1794,7 +4511,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1826,12 +4543,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1863,7 +4580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +4612,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1927,12 +4644,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1964,7 +4681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +4713,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2031,10 +4748,26 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2547A84E84E534B92705991CDC58131" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bee19fd370fef51611788d443909420f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0d74be0-a2c5-4672-a243-a9524b787786" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5d29b2be6f7307995d348e388845a54" ns3:_="">
     <xsd:import namespace="c0d74be0-a2c5-4672-a243-a9524b787786"/>
@@ -2180,22 +4913,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F619F5-97DB-4043-A110-E3E28D23D46C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c0d74be0-a2c5-4672-a243-a9524b787786"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE87664-68EB-4029-AD60-AEEE99803110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55953CB-180A-460C-AD7F-DE88F2F6AC5F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2211,28 +4953,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE87664-68EB-4029-AD60-AEEE99803110}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F619F5-97DB-4043-A110-E3E28D23D46C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c0d74be0-a2c5-4672-a243-a9524b787786"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/光电实验/数据处理.xlsx
+++ b/光电实验/数据处理.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CollaalloC\documents\光电实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collaalloc2333-my.sharepoint.com/personal/collaalloc_collaalloc2333_onmicrosoft_com/Documents/Documents/光电实验/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C5391-8971-4775-BFBE-29E32DD015F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{CF4C5391-8971-4775-BFBE-29E32DD015F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7968FA21-6D04-47A1-A325-70B14D5461E0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E30A6921-FA02-42C7-817E-1F74661AB644}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E30A6921-FA02-42C7-817E-1F74661AB644}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>光照度（Lx）</t>
   </si>
@@ -87,11 +89,63 @@
     <t>100lx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>电流（μA）</t>
+  </si>
+  <si>
+    <t>电压（mV）</t>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照度（lx）</t>
+  </si>
+  <si>
+    <t>10k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波长（nm）</t>
+  </si>
+  <si>
+    <t>红（630）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 橙（605）</t>
+  </si>
+  <si>
+    <t>黄(585)</t>
+  </si>
+  <si>
+    <t>绿（520）</t>
+  </si>
+  <si>
+    <t>蓝（460）</t>
+  </si>
+  <si>
+    <t>紫（400）</t>
+  </si>
+  <si>
+    <t>基准响应度</t>
+  </si>
+  <si>
+    <t>响应度</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="183" formatCode="0.00_);\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,8 +185,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2860,6 +2920,1097 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>负载特性曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134.19999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE7F-4961-8819-9540DB24C1BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BE7F-4961-8819-9540DB24C1BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BE7F-4961-8819-9540DB24C1BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BE7F-4961-8819-9540DB24C1BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BE7F-4961-8819-9540DB24C1BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1194101775"/>
+        <c:axId val="1194100111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1194101775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194100111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1194100111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194101775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>光谱特性曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$1:$M$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0AA3-424F-9875-824BC47E6289}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1194123503"/>
+        <c:axId val="1194124335"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1194123503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>波长</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.93097112860892373"/>
+              <c:y val="0.86025444736074674"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194124335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1194124335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>光生电压</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.14444444444444443"/>
+              <c:y val="8.1681977252843388E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1194123503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2940,6 +4091,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
@@ -3951,6 +5182,1001 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4018,6 +6244,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5594F08A-8D7A-4D1F-BC9A-D0882E59A39B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133356</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FEBFA5-B31B-4D75-9D15-7AFB18579DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16CE6C6-7DC4-41FC-89DA-A36704E0453B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4341,12 +6649,12 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4372,7 +6680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4398,7 +6706,7 @@
         <v>134.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4436,18 +6744,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CD34DE-E5AE-44D1-965A-7F1A5A47B59B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +6787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4511,7 +6819,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4543,12 +6851,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +6888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4612,7 +6920,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4644,12 +6952,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4681,7 +6989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4713,7 +7021,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4743,6 +7051,578 @@
       </c>
       <c r="J14">
         <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28ECB05F-B0E4-40DA-8DD3-99100B49F07C}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>22.3</v>
+      </c>
+      <c r="D3">
+        <v>44.9</v>
+      </c>
+      <c r="E3">
+        <v>67.3</v>
+      </c>
+      <c r="F3">
+        <v>89.8</v>
+      </c>
+      <c r="G3">
+        <v>112.1</v>
+      </c>
+      <c r="H3">
+        <v>134.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>122</v>
+      </c>
+      <c r="H4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>22.3</v>
+      </c>
+      <c r="D8">
+        <v>44.7</v>
+      </c>
+      <c r="E8">
+        <v>67.2</v>
+      </c>
+      <c r="F8">
+        <v>89.5</v>
+      </c>
+      <c r="G8">
+        <v>111.4</v>
+      </c>
+      <c r="H8">
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>134</v>
+      </c>
+      <c r="G9">
+        <v>167</v>
+      </c>
+      <c r="H9">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>400</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>22.3</v>
+      </c>
+      <c r="D13">
+        <v>44.7</v>
+      </c>
+      <c r="E13">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="F13">
+        <v>88.9</v>
+      </c>
+      <c r="G13">
+        <v>109.9</v>
+      </c>
+      <c r="H13">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>133</v>
+      </c>
+      <c r="F14">
+        <v>176</v>
+      </c>
+      <c r="G14">
+        <v>218</v>
+      </c>
+      <c r="H14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>22.1</v>
+      </c>
+      <c r="D18">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>54.2</v>
+      </c>
+      <c r="F18">
+        <v>59.6</v>
+      </c>
+      <c r="G18">
+        <v>62.6</v>
+      </c>
+      <c r="H18">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>133</v>
+      </c>
+      <c r="D19">
+        <v>254</v>
+      </c>
+      <c r="E19">
+        <v>327</v>
+      </c>
+      <c r="F19">
+        <v>360</v>
+      </c>
+      <c r="G19">
+        <v>378</v>
+      </c>
+      <c r="H19">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>400</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>20.9</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>34.1</v>
+      </c>
+      <c r="F23">
+        <v>35.6</v>
+      </c>
+      <c r="G23">
+        <v>36.6</v>
+      </c>
+      <c r="H23">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>230</v>
+      </c>
+      <c r="D24">
+        <v>340</v>
+      </c>
+      <c r="E24">
+        <v>374</v>
+      </c>
+      <c r="F24">
+        <v>391</v>
+      </c>
+      <c r="G24">
+        <v>402</v>
+      </c>
+      <c r="H24">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34E47E1-5BBD-4E4B-8CE3-0AEDD3801D2F}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1">
+        <v>630</v>
+      </c>
+      <c r="I1">
+        <v>605</v>
+      </c>
+      <c r="J1">
+        <v>585</v>
+      </c>
+      <c r="K1">
+        <v>520</v>
+      </c>
+      <c r="L1">
+        <v>460</v>
+      </c>
+      <c r="M1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>338</v>
+      </c>
+      <c r="C3" s="1">
+        <v>315</v>
+      </c>
+      <c r="D3" s="1">
+        <v>311</v>
+      </c>
+      <c r="E3" s="1">
+        <v>287</v>
+      </c>
+      <c r="F3" s="1">
+        <v>327</v>
+      </c>
+      <c r="G3" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2">
+        <f>PRODUCT(B2,B3)/338</f>
+        <v>0.65</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:G4" si="0">PRODUCT(C2,C3)/338</f>
+        <v>0.56849112426035509</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51526627218934917</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35662721893491123</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24186390532544377</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.1479289940828399E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4759,15 +7639,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2547A84E84E534B92705991CDC58131" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bee19fd370fef51611788d443909420f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0d74be0-a2c5-4672-a243-a9524b787786" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5d29b2be6f7307995d348e388845a54" ns3:_="">
     <xsd:import namespace="c0d74be0-a2c5-4672-a243-a9524b787786"/>
@@ -4913,6 +7784,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7F619F5-97DB-4043-A110-E3E28D23D46C}">
   <ds:schemaRefs>
@@ -4930,14 +7810,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE87664-68EB-4029-AD60-AEEE99803110}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C55953CB-180A-460C-AD7F-DE88F2F6AC5F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4953,4 +7825,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE87664-68EB-4029-AD60-AEEE99803110}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>